--- a/2022/Symphony/Others/Target/March/DSR wise Ach of Raj Region to till date 31st Mar'22.xlsx
+++ b/2022/Symphony/Others/Target/March/DSR wise Ach of Raj Region to till date 31st Mar'22.xlsx
@@ -764,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +829,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2778,10 +2792,10 @@
   <dimension ref="A2:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,290 +3674,290 @@
         <v>105.88559507059337</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="25">
         <v>3621840</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="25">
         <v>3517820</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="26">
         <f t="shared" si="0"/>
         <v>0.97127979148719989</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="27">
         <v>13</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="27">
         <v>9</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="26">
         <f t="shared" si="1"/>
         <v>0.69230769230769229</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="27">
         <v>46</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="27">
         <v>38</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="26">
         <f t="shared" si="2"/>
         <v>0.82608695652173914</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="28">
         <f t="shared" si="3"/>
         <v>88.644680465820613</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="25">
         <v>965460</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="25">
         <v>1004630</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="26">
         <f t="shared" si="0"/>
         <v>1.0405713338719367</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="27">
         <v>10</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="27">
         <v>9</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="26">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="27">
         <v>6</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="27">
         <v>5</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="26">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="28">
         <f t="shared" si="3"/>
         <v>97.100946698982867</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="25">
         <v>1211130</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="25">
         <v>1519040</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="26">
         <f t="shared" si="0"/>
         <v>1.2542336495669333</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="27">
         <v>10</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="27">
         <v>10</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="27">
         <v>9</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="27">
         <v>3</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="26">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="28">
         <f t="shared" si="3"/>
         <v>101.92068564068266</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="25">
         <v>1066140</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="25">
         <v>1084030</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="26">
         <f t="shared" si="0"/>
         <v>1.0167801602041007</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="27">
         <v>11</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="27">
         <v>11</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="27">
         <v>7</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="27">
         <v>5</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="26">
         <f t="shared" si="2"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="28">
         <f t="shared" si="3"/>
         <v>95.292523897960322</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="25">
         <v>1389240</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="25">
         <v>1156520</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="26">
         <f t="shared" si="0"/>
         <v>0.83248394805793091</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="27">
         <v>12</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="27">
         <v>14</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="26">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="27">
         <v>10</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="27">
         <v>5</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="26">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="28">
         <f t="shared" si="3"/>
         <v>83.282370216809198</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="25">
         <v>884640</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="25">
         <v>1169520</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="26">
         <f t="shared" si="0"/>
         <v>1.3220293000542593</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="27">
         <v>8</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="27">
         <v>7</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="26">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="27">
         <v>10</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="27">
         <v>9</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="26">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="28">
         <f t="shared" si="3"/>
         <v>114.82175800325555</v>
       </c>
